--- a/data/trans_orig/P42C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Habitat-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>89220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73338</v>
+        <v>71664</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108264</v>
+        <v>109962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1713214005073669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1408260880918811</v>
+        <v>0.1376099096116478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2078917416562273</v>
+        <v>0.211151795192706</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>431553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412509</v>
+        <v>410811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447435</v>
+        <v>449109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8286785994926331</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7921082583437726</v>
+        <v>0.788848204807294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8591739119081189</v>
+        <v>0.8623900903883522</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>214834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186885</v>
+        <v>190839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240561</v>
+        <v>243700</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2766478197215385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2406568545881174</v>
+        <v>0.2457484733854185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3097765809029547</v>
+        <v>0.3138187332901456</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>561729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>536002</v>
+        <v>532863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589678</v>
+        <v>585724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7233521802784616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6902234190970452</v>
+        <v>0.686181266709854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7593431454118826</v>
+        <v>0.7542515266145814</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>160802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138090</v>
+        <v>137802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188183</v>
+        <v>186395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2523712440758997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.216726193925298</v>
+        <v>0.2162739652958672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2953444898783643</v>
+        <v>0.2925386802622362</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>476362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448981</v>
+        <v>450769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499074</v>
+        <v>499362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7476287559241004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7046555101216355</v>
+        <v>0.707461319737764</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7832738060747018</v>
+        <v>0.7837260347041328</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>190820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163811</v>
+        <v>166918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>216087</v>
+        <v>215847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2368855478150871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2033564927451148</v>
+        <v>0.2072136370604237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2682530144979611</v>
+        <v>0.2679546772362756</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>614715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589448</v>
+        <v>589688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>641724</v>
+        <v>638617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7631144521849129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.731746985502039</v>
+        <v>0.7320453227637245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7966435072548852</v>
+        <v>0.7927863629395762</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>655675</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2392945599751317</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>2084359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7607054400248683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>48545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35717</v>
+        <v>35261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63671</v>
+        <v>64541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09825649865226323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07229088584496482</v>
+        <v>0.07136816662150693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1288711549797092</v>
+        <v>0.1306311658066625</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>445522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430396</v>
+        <v>429526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458350</v>
+        <v>458806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9017435013477367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8711288450202906</v>
+        <v>0.8693688341933378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.927709114155035</v>
+        <v>0.9286318333784931</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>117083</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97692</v>
+        <v>98170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141152</v>
+        <v>139097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1387923813326038</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1158059338615062</v>
+        <v>0.1163722715470656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1673243165096517</v>
+        <v>0.164888530500916</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>726502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>702433</v>
+        <v>704488</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>745893</v>
+        <v>745415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8612076186673963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8326756834903484</v>
+        <v>0.8351114694990843</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8841940661384939</v>
+        <v>0.8836277284529344</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>97428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79478</v>
+        <v>81639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114512</v>
+        <v>118981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1616284356176407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.131849844984173</v>
+        <v>0.1354342078788449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1899688820858002</v>
+        <v>0.1973831517631014</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>505363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488279</v>
+        <v>483810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>523313</v>
+        <v>521152</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8383715643823593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8100311179141998</v>
+        <v>0.8026168482368982</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8681501550158269</v>
+        <v>0.8645657921211551</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>166475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144981</v>
+        <v>144125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194272</v>
+        <v>194083</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1990581808988484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1733580377287019</v>
+        <v>0.1723343995725327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2322960497361015</v>
+        <v>0.2320701313967347</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>669836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642039</v>
+        <v>642228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>691330</v>
+        <v>692186</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8009418191011516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7677039502638991</v>
+        <v>0.7679298686032654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8266419622712982</v>
+        <v>0.8276656004274674</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>429531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1546882204377477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>2347223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8453117795622522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>49984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40884</v>
+        <v>39844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62430</v>
+        <v>62420</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.128619524998699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1052030797261776</v>
+        <v>0.1025252898098429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1606447596140454</v>
+        <v>0.1606182707705774</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>338638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>326192</v>
+        <v>326202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347738</v>
+        <v>348778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.871380475001301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8393552403859548</v>
+        <v>0.8393817292294228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8947969202738225</v>
+        <v>0.8974747101901571</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>130922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113693</v>
+        <v>113740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150694</v>
+        <v>149903</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2149016761698875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1866201041082205</v>
+        <v>0.1866978658958665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.24735613833405</v>
+        <v>0.2460569622447958</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>478297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458525</v>
+        <v>459316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495526</v>
+        <v>495479</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7850983238301126</v>
+        <v>0.7850983238301125</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7526438616659502</v>
+        <v>0.7539430377552042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8133798958917796</v>
+        <v>0.8133021341041335</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>147354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127844</v>
+        <v>127792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165834</v>
+        <v>166390</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3194788471847807</v>
+        <v>0.3194788471847806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2771809503240475</v>
+        <v>0.2770668448797237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3595471416639108</v>
+        <v>0.3607524425668205</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>313877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295397</v>
+        <v>294841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>333387</v>
+        <v>333439</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6805211528152194</v>
+        <v>0.6805211528152193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6404528583360892</v>
+        <v>0.6392475574331794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7228190496759527</v>
+        <v>0.7229331551202763</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>184565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166806</v>
+        <v>165942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206360</v>
+        <v>205656</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2834344569651307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.256162307849279</v>
+        <v>0.2548360700531727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3169057144466359</v>
+        <v>0.3158251185080103</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>466607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>444812</v>
+        <v>445516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>484366</v>
+        <v>485230</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7165655430348693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.683094285553364</v>
+        <v>0.6841748814919901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7438376921507209</v>
+        <v>0.7451639299468273</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>512824</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>1597419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7569832212386595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="18">
